--- a/NumDesTools/doc/【角色升级】.xlsx
+++ b/NumDesTools/doc/【角色升级】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B036B-B544-439E-AABA-A3D7A432CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F800C65-9C81-4F7F-A139-515C5546121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="role1_s" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -289,6 +289,10 @@
   <si>
     <t>角色编号</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,7 +300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -490,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,13 +900,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,7 +948,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
@@ -1057,19 +1061,13 @@
         <v>1001</v>
       </c>
       <c r="C6" s="8">
-        <v>70</v>
+        <v>234.375</v>
       </c>
       <c r="E6" s="8">
-        <v>2480</v>
+        <v>8265.1458798247804</v>
       </c>
       <c r="G6" s="8">
-        <v>248</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.5</v>
+        <v>825</v>
       </c>
       <c r="L6" s="8">
         <v>0.9</v>
@@ -1079,253 +1077,425 @@
       <c r="B7" s="8">
         <v>1002</v>
       </c>
-      <c r="C7" s="8">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2602</v>
-      </c>
-      <c r="G7" s="8">
-        <v>260</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>1003</v>
       </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2731</v>
-      </c>
-      <c r="G8" s="8">
-        <v>273</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>1004</v>
       </c>
-      <c r="C9" s="8">
-        <v>81</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2867</v>
-      </c>
-      <c r="G9" s="8">
-        <v>287</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>1005</v>
       </c>
-      <c r="C10" s="8">
-        <v>85</v>
-      </c>
-      <c r="E10" s="8">
-        <v>3009</v>
-      </c>
-      <c r="G10" s="8">
-        <v>301</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>1006</v>
       </c>
-      <c r="C11" s="8">
-        <v>90</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3157</v>
-      </c>
-      <c r="G11" s="8">
-        <v>316</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="8">
-        <v>94</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3314</v>
-      </c>
-      <c r="G12" s="8">
-        <v>332</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>1008</v>
       </c>
-      <c r="C13" s="8">
-        <v>99</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3477</v>
-      </c>
-      <c r="G13" s="8">
-        <v>348</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>1009</v>
       </c>
-      <c r="C14" s="8">
-        <v>104</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3649</v>
-      </c>
-      <c r="G14" s="8">
-        <v>366</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>1010</v>
       </c>
-      <c r="C15" s="8">
-        <v>109</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3829</v>
-      </c>
-      <c r="G15" s="8">
-        <v>384</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>1011</v>
       </c>
-      <c r="C16" s="8">
-        <v>115</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4018</v>
-      </c>
-      <c r="G16" s="8">
-        <v>403</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <v>1012</v>
       </c>
-      <c r="C17" s="8">
-        <v>120</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4216</v>
-      </c>
-      <c r="G17" s="8">
-        <v>423</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.9</v>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="8">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="8">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="8">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="8">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="8">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="8">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="8">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="8">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="8">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="8">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="8">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="8">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="8">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="8">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="8">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="8">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="8">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="8">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="8">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="8">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="8">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="8">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="8">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="8">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="8">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="8">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="8">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="8">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="8">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="8">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="8">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="8">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="8">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="8">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="8">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="8">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="8">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="8">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="8">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="8">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="8">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="8">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="8">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="8">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="8">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="8">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="8">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="8">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="8">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="8">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="8">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="8">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="8">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="8">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="8">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="8">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="8">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="8">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="8">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="8">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="8">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="8">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="8">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="8">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="8">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="8">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="8">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="8">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="8">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="8">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="8">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="8">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="8">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>

--- a/NumDesTools/doc/【角色升级】.xlsx
+++ b/NumDesTools/doc/【角色升级】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F800C65-9C81-4F7F-A139-515C5546121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347B5E7-FEE7-4931-967F-73F812639B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="role1_s" sheetId="5" r:id="rId1"/>
@@ -1077,423 +1077,1407 @@
       <c r="B7" s="8">
         <v>1002</v>
       </c>
+      <c r="C7" s="8">
+        <v>260.41666666666703</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7438.6312918423</v>
+      </c>
+      <c r="G7" s="8">
+        <v>825</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>1003</v>
       </c>
+      <c r="C8" s="8">
+        <v>271.74342105263202</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6772.3667570702401</v>
+      </c>
+      <c r="G8" s="8">
+        <v>676.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>1004</v>
       </c>
+      <c r="C9" s="8">
+        <v>296.447368421053</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6208.0028606477199</v>
+      </c>
+      <c r="G9" s="8">
+        <v>676.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>1005</v>
       </c>
+      <c r="C10" s="8">
+        <v>525</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2846.5749476497099</v>
+      </c>
+      <c r="G10" s="8">
+        <v>371.25</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>1006</v>
       </c>
+      <c r="C11" s="8">
+        <v>500</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2988.9036950321902</v>
+      </c>
+      <c r="G11" s="8">
+        <v>371.25</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>1007</v>
       </c>
+      <c r="C12" s="8">
+        <v>439.09090909090901</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3114.4653210515398</v>
+      </c>
+      <c r="G12" s="8">
+        <v>338.25</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>1008</v>
       </c>
+      <c r="C13" s="8">
+        <v>448.23863636363598</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3050.90480429539</v>
+      </c>
+      <c r="G13" s="8">
+        <v>338.25</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>1009</v>
       </c>
+      <c r="C14" s="8">
+        <v>378.9375</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3174.7268041760799</v>
+      </c>
+      <c r="G14" s="8">
+        <v>528</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>1010</v>
       </c>
+      <c r="C15" s="8">
+        <v>362.8125</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3315.8257732505699</v>
+      </c>
+      <c r="G15" s="8">
+        <v>528</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>1011</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="8">
+        <v>199.5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4158.0906047942799</v>
+      </c>
+      <c r="G16" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <v>1012</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="8">
+        <v>221.666666666667</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3742.2815443148502</v>
+      </c>
+      <c r="G17" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>1013</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="8">
+        <v>243.833333333333</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3402.0741311953202</v>
+      </c>
+      <c r="G18" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
         <v>1014</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="8">
+        <v>266</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3118.5679535957102</v>
+      </c>
+      <c r="G19" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>1015</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="8">
+        <v>288.16666666666703</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2878.6781110114198</v>
+      </c>
+      <c r="G20" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>1016</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="8">
+        <v>310.33333333333297</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2673.0582459391799</v>
+      </c>
+      <c r="G21" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>1017</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="8">
+        <v>332.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2494.8543628765701</v>
+      </c>
+      <c r="G22" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>1018</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="8">
+        <v>354.66666666666703</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2338.92596519678</v>
+      </c>
+      <c r="G23" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="8">
         <v>1019</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="8">
+        <v>376.83333333333297</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2201.3420848910901</v>
+      </c>
+      <c r="G24" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>1020</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="8">
+        <v>399</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2079.0453023971399</v>
+      </c>
+      <c r="G25" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <v>1021</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="8">
+        <v>421.16666666666703</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1969.62186542887</v>
+      </c>
+      <c r="G26" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
         <v>1022</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="8">
+        <v>443.33333333333297</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1871.1407721574301</v>
+      </c>
+      <c r="G27" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>1023</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="8">
+        <v>465.5</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1782.03883062612</v>
+      </c>
+      <c r="G28" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="8">
         <v>1024</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="8">
+        <v>487.66666666666703</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1701.0370655976601</v>
+      </c>
+      <c r="G29" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>1025</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="8">
+        <v>509.83333333333297</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1627.0789323107999</v>
+      </c>
+      <c r="G30" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="8">
         <v>1026</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="8">
+        <v>532</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1559.2839767978501</v>
+      </c>
+      <c r="G31" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="8">
         <v>1027</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="8">
+        <v>554.16666666666697</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1496.91261772594</v>
+      </c>
+      <c r="G32" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="8">
         <v>1028</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="8">
+        <v>576.33333333333303</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1439.3390555057099</v>
+      </c>
+      <c r="G33" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="8">
         <v>1029</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="8">
+        <v>598.5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1386.0302015980899</v>
+      </c>
+      <c r="G34" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="8">
         <v>1030</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="8">
+        <v>620.66666666666697</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1336.5291229695899</v>
+      </c>
+      <c r="G35" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <v>1031</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="8">
+        <v>642.83333333333303</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1290.44191183271</v>
+      </c>
+      <c r="G36" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="8">
         <v>1032</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="8">
+        <v>665</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1247.4271814382801</v>
+      </c>
+      <c r="G37" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <v>1033</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="8">
+        <v>687.16666666666697</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1207.1875949402699</v>
+      </c>
+      <c r="G38" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
         <v>1034</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="8">
+        <v>709.33333333333303</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1169.46298259839</v>
+      </c>
+      <c r="G39" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <v>1035</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="8">
+        <v>731.5</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1134.02471039844</v>
+      </c>
+      <c r="G40" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="8">
         <v>1036</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="8">
+        <v>753.66666666666697</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1100.67104244554</v>
+      </c>
+      <c r="G41" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <v>1037</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="8">
+        <v>775.83333333333303</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1069.2232983756701</v>
+      </c>
+      <c r="G42" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="8">
         <v>1038</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="8">
+        <v>798</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1039.52265119857</v>
+      </c>
+      <c r="G43" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <v>1039</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="8">
+        <v>820.16666666666697</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1011.42744440942</v>
+      </c>
+      <c r="G44" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
         <v>1040</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="8">
+        <v>842.33333333333303</v>
+      </c>
+      <c r="E45" s="8">
+        <v>984.81093271443399</v>
+      </c>
+      <c r="G45" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="8">
         <v>1041</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="8">
+        <v>864.5</v>
+      </c>
+      <c r="E46" s="8">
+        <v>959.55937033714099</v>
+      </c>
+      <c r="G46" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
         <v>1042</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="8">
+        <v>886.66666666666697</v>
+      </c>
+      <c r="E47" s="8">
+        <v>935.570386078713</v>
+      </c>
+      <c r="G47" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
         <v>1043</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="8">
+        <v>908.83333333333303</v>
+      </c>
+      <c r="E48" s="8">
+        <v>912.75159617435395</v>
+      </c>
+      <c r="G48" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
         <v>1044</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="8">
+        <v>931</v>
+      </c>
+      <c r="E49" s="8">
+        <v>891.01941531305999</v>
+      </c>
+      <c r="G49" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="8">
         <v>1045</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="8">
+        <v>953.16666666666697</v>
+      </c>
+      <c r="E50" s="8">
+        <v>870.298033561593</v>
+      </c>
+      <c r="G50" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="8">
         <v>1046</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="8">
+        <v>975.33333333333303</v>
+      </c>
+      <c r="E51" s="8">
+        <v>850.51853279883005</v>
+      </c>
+      <c r="G51" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="8">
         <v>1047</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="8">
+        <v>997.5</v>
+      </c>
+      <c r="E52" s="8">
+        <v>831.61812095885603</v>
+      </c>
+      <c r="G52" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
         <v>1048</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="8">
+        <v>1019.66666666667</v>
+      </c>
+      <c r="E53" s="8">
+        <v>813.53946615540201</v>
+      </c>
+      <c r="G53" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="8">
         <v>1049</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="8">
+        <v>1041.8333333333301</v>
+      </c>
+      <c r="E54" s="8">
+        <v>796.23011581166998</v>
+      </c>
+      <c r="G54" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <v>1050</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="8">
+        <v>1064</v>
+      </c>
+      <c r="E55" s="8">
+        <v>779.64198839892697</v>
+      </c>
+      <c r="G55" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="8">
         <v>1051</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="8">
+        <v>1086.1666666666699</v>
+      </c>
+      <c r="E56" s="8">
+        <v>763.73092741119399</v>
+      </c>
+      <c r="G56" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="8">
         <v>1052</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="8">
+        <v>1108.3333333333301</v>
+      </c>
+      <c r="E57" s="8">
+        <v>748.45630886296999</v>
+      </c>
+      <c r="G57" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="8">
         <v>1053</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="8">
+        <v>1130.5</v>
+      </c>
+      <c r="E58" s="8">
+        <v>733.78069496369596</v>
+      </c>
+      <c r="G58" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="8">
         <v>1054</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="8">
+        <v>1152.6666666666699</v>
+      </c>
+      <c r="E59" s="8">
+        <v>719.66952775285597</v>
+      </c>
+      <c r="G59" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="8">
         <v>1055</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="8">
+        <v>1174.8333333333301</v>
+      </c>
+      <c r="E60" s="8">
+        <v>706.09085741789602</v>
+      </c>
+      <c r="G60" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="8">
         <v>1056</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="8">
+        <v>1197</v>
+      </c>
+      <c r="E61" s="8">
+        <v>693.01510079904597</v>
+      </c>
+      <c r="G61" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="8">
         <v>1057</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="8">
+        <v>1219.1666666666699</v>
+      </c>
+      <c r="E62" s="8">
+        <v>680.41482623906404</v>
+      </c>
+      <c r="G62" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="8">
         <v>1058</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="8">
+        <v>1241.3333333333301</v>
+      </c>
+      <c r="E63" s="8">
+        <v>668.26456148479497</v>
+      </c>
+      <c r="G63" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="8">
         <v>1059</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C64" s="8">
+        <v>1263.5</v>
+      </c>
+      <c r="E64" s="8">
+        <v>656.54062180962296</v>
+      </c>
+      <c r="G64" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B65" s="8">
         <v>1060</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C65" s="8">
+        <v>1285.6666666666699</v>
+      </c>
+      <c r="E65" s="8">
+        <v>645.220955916354</v>
+      </c>
+      <c r="G65" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B66" s="8">
         <v>1061</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="8">
+        <v>1307.8333333333301</v>
+      </c>
+      <c r="E66" s="8">
+        <v>634.28500751099102</v>
+      </c>
+      <c r="G66" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B67" s="8">
         <v>1062</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C67" s="8">
+        <v>1330</v>
+      </c>
+      <c r="E67" s="8">
+        <v>623.71359071914196</v>
+      </c>
+      <c r="G67" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L67" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B68" s="8">
         <v>1063</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C68" s="8">
+        <v>1352.1666666666699</v>
+      </c>
+      <c r="E68" s="8">
+        <v>613.48877775653295</v>
+      </c>
+      <c r="G68" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B69" s="8">
         <v>1064</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C69" s="8">
+        <v>1374.3333333333301</v>
+      </c>
+      <c r="E69" s="8">
+        <v>603.59379747013702</v>
+      </c>
+      <c r="G69" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B70" s="8">
         <v>1065</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C70" s="8">
+        <v>1396.5</v>
+      </c>
+      <c r="E70" s="8">
+        <v>594.01294354204003</v>
+      </c>
+      <c r="G70" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L70" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B71" s="8">
         <v>1066</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="8">
+        <v>1418.6666666666699</v>
+      </c>
+      <c r="E71" s="8">
+        <v>584.731491299195</v>
+      </c>
+      <c r="G71" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B72" s="8">
         <v>1067</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C72" s="8">
+        <v>1440.8333333333301</v>
+      </c>
+      <c r="E72" s="8">
+        <v>575.73562220228496</v>
+      </c>
+      <c r="G72" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B73" s="8">
         <v>1068</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C73" s="8">
+        <v>1463</v>
+      </c>
+      <c r="E73" s="8">
+        <v>567.01235519922</v>
+      </c>
+      <c r="G73" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B74" s="8">
         <v>1069</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C74" s="8">
+        <v>1485.1666666666699</v>
+      </c>
+      <c r="E74" s="8">
+        <v>558.54948422609698</v>
+      </c>
+      <c r="G74" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B75" s="8">
         <v>1070</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C75" s="8">
+        <v>1507.3333333333301</v>
+      </c>
+      <c r="E75" s="8">
+        <v>550.33552122277194</v>
+      </c>
+      <c r="G75" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="8">
         <v>1071</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C76" s="8">
+        <v>1529.5</v>
+      </c>
+      <c r="E76" s="8">
+        <v>542.35964410360202</v>
+      </c>
+      <c r="G76" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B77" s="8">
         <v>1072</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="8">
+        <v>1551.6666666666699</v>
+      </c>
+      <c r="E77" s="8">
+        <v>534.61164918783595</v>
+      </c>
+      <c r="G77" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B78" s="8">
         <v>1073</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="8">
+        <v>1573.8333333333301</v>
+      </c>
+      <c r="E78" s="8">
+        <v>527.08190764997903</v>
+      </c>
+      <c r="G78" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B79" s="8">
         <v>1074</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C79" s="8">
+        <v>1596</v>
+      </c>
+      <c r="E79" s="8">
+        <v>519.76132559928499</v>
+      </c>
+      <c r="G79" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B80" s="8">
         <v>1075</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C80" s="8">
+        <v>1618.1666666666699</v>
+      </c>
+      <c r="E80" s="8">
+        <v>512.64130744039005</v>
+      </c>
+      <c r="G80" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L80" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B81" s="8">
         <v>1076</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="8">
+        <v>1640.3333333333301</v>
+      </c>
+      <c r="E81" s="8">
+        <v>505.71372220470897</v>
+      </c>
+      <c r="G81" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B82" s="8">
         <v>1077</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="8">
+        <v>1662.5</v>
+      </c>
+      <c r="E82" s="8">
+        <v>498.97087257531302</v>
+      </c>
+      <c r="G82" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B83" s="8">
         <v>1078</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C83" s="8">
+        <v>1684.6666666666699</v>
+      </c>
+      <c r="E83" s="8">
+        <v>492.40546635721699</v>
+      </c>
+      <c r="G83" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B84" s="8">
         <v>1079</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C84" s="8">
+        <v>1706.8333333333301</v>
+      </c>
+      <c r="E84" s="8">
+        <v>486.01059017076</v>
+      </c>
+      <c r="G84" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B85" s="8">
         <v>1080</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C85" s="8">
+        <v>1729</v>
+      </c>
+      <c r="E85" s="8">
+        <v>479.77968516857101</v>
+      </c>
+      <c r="G85" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B86" s="8">
         <v>1081</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C86" s="8">
+        <v>1751.1666666666699</v>
+      </c>
+      <c r="E86" s="8">
+        <v>473.706524596816</v>
+      </c>
+      <c r="G86" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L86" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B87" s="8">
         <v>1082</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C87" s="8">
+        <v>1773.3333333333301</v>
+      </c>
+      <c r="E87" s="8">
+        <v>467.78519303935599</v>
+      </c>
+      <c r="G87" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
         <v>1083</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C88" s="8">
+        <v>1795.5</v>
+      </c>
+      <c r="E88" s="8">
+        <v>462.01006719936402</v>
+      </c>
+      <c r="G88" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L88" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B89" s="8">
         <v>1084</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B90" s="8">
         <v>1085</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B91" s="8">
         <v>1086</v>
       </c>

--- a/NumDesTools/doc/【角色升级】.xlsx
+++ b/NumDesTools/doc/【角色升级】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347B5E7-FEE7-4931-967F-73F812639B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C04D744-5397-4225-84B7-D8096251A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="role1_s" sheetId="5" r:id="rId1"/>
     <sheet name="备注" sheetId="6" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -568,6 +571,705 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="角色基础"/>
+      <sheetName val="角色成长"/>
+      <sheetName val="怪物基础"/>
+      <sheetName val="角色技能"/>
+      <sheetName val="怪物技能"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="N11">
+            <v>70.3125</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15" t="str">
+            <v>攻击力</v>
+          </cell>
+          <cell r="U15" t="str">
+            <v>DataTable</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="N16">
+            <v>234.375</v>
+          </cell>
+          <cell r="U16">
+            <v>1001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>260.41666666666663</v>
+          </cell>
+          <cell r="U17">
+            <v>1002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="N18">
+            <v>271.74342105263162</v>
+          </cell>
+          <cell r="U18">
+            <v>1003</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>296.44736842105266</v>
+          </cell>
+          <cell r="U19">
+            <v>1004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>525.00000000000011</v>
+          </cell>
+          <cell r="U20">
+            <v>1005</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>500.00000000000006</v>
+          </cell>
+          <cell r="U21">
+            <v>1006</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>439.09090909090912</v>
+          </cell>
+          <cell r="U22">
+            <v>1007</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>448.23863636363637</v>
+          </cell>
+          <cell r="U23">
+            <v>1008</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>378.93750000000006</v>
+          </cell>
+          <cell r="U24">
+            <v>1009</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>362.81250000000006</v>
+          </cell>
+          <cell r="U25">
+            <v>1010</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>199.50000000000003</v>
+          </cell>
+          <cell r="U26">
+            <v>1011</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>221.66666666666669</v>
+          </cell>
+          <cell r="U27">
+            <v>1012</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>243.83333333333337</v>
+          </cell>
+          <cell r="U28">
+            <v>1013</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>266</v>
+          </cell>
+          <cell r="U29">
+            <v>1014</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="N30">
+            <v>288.16666666666669</v>
+          </cell>
+          <cell r="U30">
+            <v>1015</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="N31">
+            <v>310.33333333333331</v>
+          </cell>
+          <cell r="U31">
+            <v>1016</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="N32">
+            <v>332.5</v>
+          </cell>
+          <cell r="U32">
+            <v>1017</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="N33">
+            <v>354.66666666666674</v>
+          </cell>
+          <cell r="U33">
+            <v>1018</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="N34">
+            <v>376.83333333333337</v>
+          </cell>
+          <cell r="U34">
+            <v>1019</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>399.00000000000006</v>
+          </cell>
+          <cell r="U35">
+            <v>1020</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>421.16666666666669</v>
+          </cell>
+          <cell r="U36">
+            <v>1021</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>443.33333333333337</v>
+          </cell>
+          <cell r="U37">
+            <v>1022</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>465.50000000000006</v>
+          </cell>
+          <cell r="U38">
+            <v>1023</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>487.66666666666674</v>
+          </cell>
+          <cell r="U39">
+            <v>1024</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>509.83333333333331</v>
+          </cell>
+          <cell r="U40">
+            <v>1025</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>532</v>
+          </cell>
+          <cell r="U41">
+            <v>1026</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>554.16666666666674</v>
+          </cell>
+          <cell r="U42">
+            <v>1027</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>576.33333333333337</v>
+          </cell>
+          <cell r="U43">
+            <v>1028</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>598.50000000000011</v>
+          </cell>
+          <cell r="U44">
+            <v>1029</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>620.66666666666663</v>
+          </cell>
+          <cell r="U45">
+            <v>1030</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="N46">
+            <v>642.83333333333337</v>
+          </cell>
+          <cell r="U46">
+            <v>1031</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="N47">
+            <v>665</v>
+          </cell>
+          <cell r="U47">
+            <v>1032</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="N48">
+            <v>687.16666666666674</v>
+          </cell>
+          <cell r="U48">
+            <v>1033</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="N49">
+            <v>709.33333333333348</v>
+          </cell>
+          <cell r="U49">
+            <v>1034</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="N50">
+            <v>731.5</v>
+          </cell>
+          <cell r="U50">
+            <v>1035</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>753.66666666666674</v>
+          </cell>
+          <cell r="U51">
+            <v>1036</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>775.83333333333337</v>
+          </cell>
+          <cell r="U52">
+            <v>1037</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>798.00000000000011</v>
+          </cell>
+          <cell r="U53">
+            <v>1038</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>820.16666666666674</v>
+          </cell>
+          <cell r="U54">
+            <v>1039</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>842.33333333333337</v>
+          </cell>
+          <cell r="U55">
+            <v>1040</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>864.5</v>
+          </cell>
+          <cell r="U56">
+            <v>1041</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>886.66666666666674</v>
+          </cell>
+          <cell r="U57">
+            <v>1042</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>908.83333333333337</v>
+          </cell>
+          <cell r="U58">
+            <v>1043</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>931.00000000000011</v>
+          </cell>
+          <cell r="U59">
+            <v>1044</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>953.16666666666674</v>
+          </cell>
+          <cell r="U60">
+            <v>1045</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>975.33333333333348</v>
+          </cell>
+          <cell r="U61">
+            <v>1046</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="N62">
+            <v>997.50000000000011</v>
+          </cell>
+          <cell r="U62">
+            <v>1047</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="N63">
+            <v>1019.6666666666666</v>
+          </cell>
+          <cell r="U63">
+            <v>1048</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="N64">
+            <v>1041.8333333333335</v>
+          </cell>
+          <cell r="U64">
+            <v>1049</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="N65">
+            <v>1064</v>
+          </cell>
+          <cell r="U65">
+            <v>1050</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="N66">
+            <v>1086.1666666666667</v>
+          </cell>
+          <cell r="U66">
+            <v>1051</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="N67">
+            <v>1108.3333333333335</v>
+          </cell>
+          <cell r="U67">
+            <v>1052</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>1130.5</v>
+          </cell>
+          <cell r="U68">
+            <v>1053</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>1152.6666666666667</v>
+          </cell>
+          <cell r="U69">
+            <v>1054</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>1174.8333333333335</v>
+          </cell>
+          <cell r="U70">
+            <v>1055</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>1197.0000000000002</v>
+          </cell>
+          <cell r="U71">
+            <v>1056</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>1219.1666666666667</v>
+          </cell>
+          <cell r="U72">
+            <v>1057</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>1241.3333333333333</v>
+          </cell>
+          <cell r="U73">
+            <v>1058</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>1263.5000000000002</v>
+          </cell>
+          <cell r="U74">
+            <v>1059</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>1285.6666666666667</v>
+          </cell>
+          <cell r="U75">
+            <v>1060</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>1307.8333333333335</v>
+          </cell>
+          <cell r="U76">
+            <v>1061</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>1330</v>
+          </cell>
+          <cell r="U77">
+            <v>1062</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>1352.1666666666667</v>
+          </cell>
+          <cell r="U78">
+            <v>1063</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="N79">
+            <v>1374.3333333333335</v>
+          </cell>
+          <cell r="U79">
+            <v>1064</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="N80">
+            <v>1396.5</v>
+          </cell>
+          <cell r="U80">
+            <v>1065</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="N81">
+            <v>1418.666666666667</v>
+          </cell>
+          <cell r="U81">
+            <v>1066</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="N82">
+            <v>1440.8333333333335</v>
+          </cell>
+          <cell r="U82">
+            <v>1067</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="N83">
+            <v>1463</v>
+          </cell>
+          <cell r="U83">
+            <v>1068</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="N84">
+            <v>1485.1666666666667</v>
+          </cell>
+          <cell r="U84">
+            <v>1069</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>1507.3333333333335</v>
+          </cell>
+          <cell r="U85">
+            <v>1070</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>1529.5000000000002</v>
+          </cell>
+          <cell r="U86">
+            <v>1071</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>1551.6666666666667</v>
+          </cell>
+          <cell r="U87">
+            <v>1072</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>1573.8333333333335</v>
+          </cell>
+          <cell r="U88">
+            <v>1073</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>1596.0000000000002</v>
+          </cell>
+          <cell r="U89">
+            <v>1074</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>1618.1666666666667</v>
+          </cell>
+          <cell r="U90">
+            <v>1075</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>1640.3333333333335</v>
+          </cell>
+          <cell r="U91">
+            <v>1076</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>1662.5000000000002</v>
+          </cell>
+          <cell r="U92">
+            <v>1077</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>1684.6666666666667</v>
+          </cell>
+          <cell r="U93">
+            <v>1078</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>1706.8333333333335</v>
+          </cell>
+          <cell r="U94">
+            <v>1079</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>1729</v>
+          </cell>
+          <cell r="U95">
+            <v>1080</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="N96">
+            <v>1751.166666666667</v>
+          </cell>
+          <cell r="U96">
+            <v>1081</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="N97">
+            <v>1773.3333333333335</v>
+          </cell>
+          <cell r="U97">
+            <v>1082</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="N98">
+            <v>1795.5</v>
+          </cell>
+          <cell r="U98">
+            <v>1083</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,10 +1605,10 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B91"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,33 +1760,29 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="8">
-        <v>234.375</v>
-      </c>
-      <c r="E6" s="8">
-        <v>8265.1458798247804</v>
-      </c>
-      <c r="G6" s="8">
-        <v>825</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.9</v>
+        <v>1084</v>
+      </c>
+      <c r="D6" s="8" t="e">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B6,[1]角色基础!$U:$U,0))-C6</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="C7" s="8">
-        <v>260.41666666666703</v>
+        <v>509.83333333333297</v>
+      </c>
+      <c r="D7" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B7,[1]角色基础!$U:$U,0))-C7</f>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>7438.6312918423</v>
+        <v>1627.0789323107999</v>
       </c>
       <c r="G7" s="8">
-        <v>825</v>
+        <v>206.25</v>
       </c>
       <c r="L7" s="8">
         <v>0.9</v>
@@ -1092,166 +1790,194 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C8" s="8">
-        <v>271.74342105263202</v>
+        <v>266</v>
+      </c>
+      <c r="D8" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B8,[1]角色基础!$U:$U,0))-C8</f>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>6772.3667570702401</v>
+        <v>3118.5679535957102</v>
       </c>
       <c r="G8" s="8">
-        <v>676.5</v>
+        <v>206.25</v>
       </c>
       <c r="L8" s="8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="8">
-        <v>296.447368421053</v>
+        <v>332.5</v>
+      </c>
+      <c r="D9" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B9,[1]角色基础!$U:$U,0))-C9</f>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>6208.0028606477199</v>
+        <v>2494.8543628765701</v>
       </c>
       <c r="G9" s="8">
-        <v>676.5</v>
+        <v>206.25</v>
       </c>
       <c r="L9" s="8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
-        <v>1005</v>
+        <v>1068</v>
       </c>
       <c r="C10" s="8">
-        <v>525</v>
+        <v>1463</v>
+      </c>
+      <c r="D10" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B10,[1]角色基础!$U:$U,0))-C10</f>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>2846.5749476497099</v>
+        <v>567.01235519922</v>
       </c>
       <c r="G10" s="8">
-        <v>371.25</v>
+        <v>206.25</v>
       </c>
       <c r="L10" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="C11" s="8">
-        <v>500</v>
+        <v>1019.66666666667</v>
+      </c>
+      <c r="D11" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B11,[1]角色基础!$U:$U,0))-C11</f>
+        <v>-3.4106051316484809E-12</v>
       </c>
       <c r="E11" s="8">
-        <v>2988.9036950321902</v>
+        <v>813.53946615540201</v>
       </c>
       <c r="G11" s="8">
-        <v>371.25</v>
+        <v>206.25</v>
       </c>
       <c r="L11" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
-        <v>1007</v>
+        <v>1039</v>
       </c>
       <c r="C12" s="8">
-        <v>439.09090909090901</v>
+        <v>820.16666666666697</v>
+      </c>
+      <c r="D12" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B12,[1]角色基础!$U:$U,0))-C12</f>
+        <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>3114.4653210515398</v>
+        <v>1011.42744440942</v>
       </c>
       <c r="G12" s="8">
-        <v>338.25</v>
+        <v>206.25</v>
       </c>
       <c r="L12" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
-        <v>1008</v>
+        <v>1083</v>
       </c>
       <c r="C13" s="8">
-        <v>448.23863636363598</v>
+        <v>1795.5</v>
+      </c>
+      <c r="D13" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B13,[1]角色基础!$U:$U,0))-C13</f>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>3050.90480429539</v>
+        <v>462.01006719936402</v>
       </c>
       <c r="G13" s="8">
-        <v>338.25</v>
+        <v>206.25</v>
       </c>
       <c r="L13" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
-        <v>1009</v>
+        <v>1061</v>
       </c>
       <c r="C14" s="8">
-        <v>378.9375</v>
+        <v>1307.8333333333301</v>
+      </c>
+      <c r="D14" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B14,[1]角色基础!$U:$U,0))-C14</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E14" s="8">
-        <v>3174.7268041760799</v>
+        <v>634.28500751099102</v>
       </c>
       <c r="G14" s="8">
-        <v>528</v>
+        <v>206.25</v>
       </c>
       <c r="L14" s="8">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="8">
-        <v>362.8125</v>
+        <v>234.375</v>
+      </c>
+      <c r="D15" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B15,[1]角色基础!$U:$U,0))-C15</f>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>3315.8257732505699</v>
+        <v>8265.1458798247804</v>
       </c>
       <c r="G15" s="8">
-        <v>528</v>
+        <v>825</v>
       </c>
       <c r="L15" s="8">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="8">
-        <v>199.5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4158.0906047942799</v>
-      </c>
-      <c r="G16" s="8">
-        <v>206.25</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.9</v>
+        <v>1085</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B16,[1]角色基础!$U:$U,0))-C16</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
-        <v>1012</v>
+        <v>1057</v>
       </c>
       <c r="C17" s="8">
-        <v>221.666666666667</v>
+        <v>1219.1666666666699</v>
+      </c>
+      <c r="D17" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B17,[1]角色基础!$U:$U,0))-C17</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E17" s="8">
-        <v>3742.2815443148502</v>
+        <v>680.41482623906404</v>
       </c>
       <c r="G17" s="8">
         <v>206.25</v>
@@ -1262,13 +1988,17 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
-        <v>1013</v>
+        <v>1056</v>
       </c>
       <c r="C18" s="8">
-        <v>243.833333333333</v>
+        <v>1197</v>
+      </c>
+      <c r="D18" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B18,[1]角色基础!$U:$U,0))-C18</f>
+        <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>3402.0741311953202</v>
+        <v>693.01510079904597</v>
       </c>
       <c r="G18" s="8">
         <v>206.25</v>
@@ -1279,13 +2009,17 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
-        <v>1014</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="8">
-        <v>266</v>
+        <v>1773.3333333333301</v>
+      </c>
+      <c r="D19" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B19,[1]角色基础!$U:$U,0))-C19</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E19" s="8">
-        <v>3118.5679535957102</v>
+        <v>467.78519303935599</v>
       </c>
       <c r="G19" s="8">
         <v>206.25</v>
@@ -1296,13 +2030,17 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
-        <v>1015</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="8">
-        <v>288.16666666666703</v>
+        <v>1706.8333333333301</v>
+      </c>
+      <c r="D20" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B20,[1]角色基础!$U:$U,0))-C20</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E20" s="8">
-        <v>2878.6781110114198</v>
+        <v>486.01059017076</v>
       </c>
       <c r="G20" s="8">
         <v>206.25</v>
@@ -1313,13 +2051,17 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="C21" s="8">
-        <v>310.33333333333297</v>
+        <v>997.5</v>
+      </c>
+      <c r="D21" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B21,[1]角色基础!$U:$U,0))-C21</f>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <v>2673.0582459391799</v>
+        <v>831.61812095885603</v>
       </c>
       <c r="G21" s="8">
         <v>206.25</v>
@@ -1330,13 +2072,17 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="C22" s="8">
-        <v>332.5</v>
+        <v>731.5</v>
+      </c>
+      <c r="D22" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B22,[1]角色基础!$U:$U,0))-C22</f>
+        <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>2494.8543628765701</v>
+        <v>1134.02471039844</v>
       </c>
       <c r="G22" s="8">
         <v>206.25</v>
@@ -1347,13 +2093,17 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
-        <v>1018</v>
+        <v>1062</v>
       </c>
       <c r="C23" s="8">
-        <v>354.66666666666703</v>
+        <v>1330</v>
+      </c>
+      <c r="D23" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B23,[1]角色基础!$U:$U,0))-C23</f>
+        <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>2338.92596519678</v>
+        <v>623.71359071914196</v>
       </c>
       <c r="G23" s="8">
         <v>206.25</v>
@@ -1364,13 +2114,17 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="8">
-        <v>1019</v>
+        <v>1059</v>
       </c>
       <c r="C24" s="8">
-        <v>376.83333333333297</v>
+        <v>1263.5</v>
+      </c>
+      <c r="D24" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B24,[1]角色基础!$U:$U,0))-C24</f>
+        <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>2201.3420848910901</v>
+        <v>656.54062180962296</v>
       </c>
       <c r="G24" s="8">
         <v>206.25</v>
@@ -1381,13 +2135,17 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
-        <v>1020</v>
+        <v>1041</v>
       </c>
       <c r="C25" s="8">
-        <v>399</v>
+        <v>864.5</v>
+      </c>
+      <c r="D25" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B25,[1]角色基础!$U:$U,0))-C25</f>
+        <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>2079.0453023971399</v>
+        <v>959.55937033714099</v>
       </c>
       <c r="G25" s="8">
         <v>206.25</v>
@@ -1398,30 +2156,38 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="C26" s="8">
-        <v>421.16666666666703</v>
+        <v>378.9375</v>
+      </c>
+      <c r="D26" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B26,[1]角色基础!$U:$U,0))-C26</f>
+        <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>1969.62186542887</v>
+        <v>3174.7268041760799</v>
       </c>
       <c r="G26" s="8">
-        <v>206.25</v>
+        <v>528</v>
       </c>
       <c r="L26" s="8">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="C27" s="8">
-        <v>443.33333333333297</v>
+        <v>1064</v>
+      </c>
+      <c r="D27" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B27,[1]角色基础!$U:$U,0))-C27</f>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>1871.1407721574301</v>
+        <v>779.64198839892697</v>
       </c>
       <c r="G27" s="8">
         <v>206.25</v>
@@ -1432,13 +2198,17 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C28" s="8">
-        <v>465.5</v>
+        <v>554.16666666666697</v>
+      </c>
+      <c r="D28" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B28,[1]角色基础!$U:$U,0))-C28</f>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>1782.03883062612</v>
+        <v>1496.91261772594</v>
       </c>
       <c r="G28" s="8">
         <v>206.25</v>
@@ -1449,13 +2219,17 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="8">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="C29" s="8">
-        <v>487.66666666666703</v>
+        <v>842.33333333333303</v>
+      </c>
+      <c r="D29" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B29,[1]角色基础!$U:$U,0))-C29</f>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>1701.0370655976601</v>
+        <v>984.81093271443399</v>
       </c>
       <c r="G29" s="8">
         <v>206.25</v>
@@ -1466,30 +2240,38 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="C30" s="8">
-        <v>509.83333333333297</v>
+        <v>296.447368421053</v>
+      </c>
+      <c r="D30" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B30,[1]角色基础!$U:$U,0))-C30</f>
+        <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>1627.0789323107999</v>
+        <v>6208.0028606477199</v>
       </c>
       <c r="G30" s="8">
-        <v>206.25</v>
+        <v>676.5</v>
       </c>
       <c r="L30" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="8">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="C31" s="8">
-        <v>532</v>
+        <v>975.33333333333303</v>
+      </c>
+      <c r="D31" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B31,[1]角色基础!$U:$U,0))-C31</f>
+        <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>1559.2839767978501</v>
+        <v>850.51853279883005</v>
       </c>
       <c r="G31" s="8">
         <v>206.25</v>
@@ -1500,13 +2282,17 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="8">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="C32" s="8">
-        <v>554.16666666666697</v>
+        <v>953.16666666666697</v>
+      </c>
+      <c r="D32" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B32,[1]角色基础!$U:$U,0))-C32</f>
+        <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>1496.91261772594</v>
+        <v>870.298033561593</v>
       </c>
       <c r="G32" s="8">
         <v>206.25</v>
@@ -1517,13 +2303,17 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="8">
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="C33" s="8">
-        <v>576.33333333333303</v>
+        <v>1507.3333333333301</v>
+      </c>
+      <c r="D33" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B33,[1]角色基础!$U:$U,0))-C33</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E33" s="8">
-        <v>1439.3390555057099</v>
+        <v>550.33552122277194</v>
       </c>
       <c r="G33" s="8">
         <v>206.25</v>
@@ -1539,6 +2329,10 @@
       <c r="C34" s="8">
         <v>598.5</v>
       </c>
+      <c r="D34" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B34,[1]角色基础!$U:$U,0))-C34</f>
+        <v>0</v>
+      </c>
       <c r="E34" s="8">
         <v>1386.0302015980899</v>
       </c>
@@ -1551,13 +2345,17 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="8">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C35" s="8">
-        <v>620.66666666666697</v>
+        <v>642.83333333333303</v>
+      </c>
+      <c r="D35" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B35,[1]角色基础!$U:$U,0))-C35</f>
+        <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>1336.5291229695899</v>
+        <v>1290.44191183271</v>
       </c>
       <c r="G35" s="8">
         <v>206.25</v>
@@ -1568,13 +2366,17 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
-        <v>1031</v>
+        <v>1044</v>
       </c>
       <c r="C36" s="8">
-        <v>642.83333333333303</v>
+        <v>931</v>
+      </c>
+      <c r="D36" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B36,[1]角色基础!$U:$U,0))-C36</f>
+        <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>1290.44191183271</v>
+        <v>891.01941531305999</v>
       </c>
       <c r="G36" s="8">
         <v>206.25</v>
@@ -1585,13 +2387,17 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="8">
-        <v>1032</v>
+        <v>1077</v>
       </c>
       <c r="C37" s="8">
-        <v>665</v>
+        <v>1662.5</v>
+      </c>
+      <c r="D37" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B37,[1]角色基础!$U:$U,0))-C37</f>
+        <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>1247.4271814382801</v>
+        <v>498.97087257531302</v>
       </c>
       <c r="G37" s="8">
         <v>206.25</v>
@@ -1602,13 +2408,17 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
-        <v>1033</v>
+        <v>1076</v>
       </c>
       <c r="C38" s="8">
-        <v>687.16666666666697</v>
+        <v>1640.3333333333301</v>
+      </c>
+      <c r="D38" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B38,[1]角色基础!$U:$U,0))-C38</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E38" s="8">
-        <v>1207.1875949402699</v>
+        <v>505.71372220470897</v>
       </c>
       <c r="G38" s="8">
         <v>206.25</v>
@@ -1619,13 +2429,17 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="C39" s="8">
-        <v>709.33333333333303</v>
+        <v>886.66666666666697</v>
+      </c>
+      <c r="D39" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B39,[1]角色基础!$U:$U,0))-C39</f>
+        <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>1169.46298259839</v>
+        <v>935.570386078713</v>
       </c>
       <c r="G39" s="8">
         <v>206.25</v>
@@ -1636,13 +2450,17 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C40" s="8">
-        <v>731.5</v>
+        <v>709.33333333333303</v>
+      </c>
+      <c r="D40" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B40,[1]角色基础!$U:$U,0))-C40</f>
+        <v>0</v>
       </c>
       <c r="E40" s="8">
-        <v>1134.02471039844</v>
+        <v>1169.46298259839</v>
       </c>
       <c r="G40" s="8">
         <v>206.25</v>
@@ -1653,13 +2471,17 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="8">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="C41" s="8">
-        <v>753.66666666666697</v>
+        <v>1152.6666666666699</v>
+      </c>
+      <c r="D41" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B41,[1]角色基础!$U:$U,0))-C41</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E41" s="8">
-        <v>1100.67104244554</v>
+        <v>719.66952775285597</v>
       </c>
       <c r="G41" s="8">
         <v>206.25</v>
@@ -1670,13 +2492,17 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
-        <v>1037</v>
+        <v>1075</v>
       </c>
       <c r="C42" s="8">
-        <v>775.83333333333303</v>
+        <v>1618.1666666666699</v>
+      </c>
+      <c r="D42" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B42,[1]角色基础!$U:$U,0))-C42</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E42" s="8">
-        <v>1069.2232983756701</v>
+        <v>512.64130744039005</v>
       </c>
       <c r="G42" s="8">
         <v>206.25</v>
@@ -1687,13 +2513,17 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="8">
-        <v>1038</v>
+        <v>1052</v>
       </c>
       <c r="C43" s="8">
-        <v>798</v>
+        <v>1108.3333333333301</v>
+      </c>
+      <c r="D43" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B43,[1]角色基础!$U:$U,0))-C43</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E43" s="8">
-        <v>1039.52265119857</v>
+        <v>748.45630886296999</v>
       </c>
       <c r="G43" s="8">
         <v>206.25</v>
@@ -1704,13 +2534,17 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
-        <v>1039</v>
+        <v>1081</v>
       </c>
       <c r="C44" s="8">
-        <v>820.16666666666697</v>
+        <v>1751.1666666666699</v>
+      </c>
+      <c r="D44" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B44,[1]角色基础!$U:$U,0))-C44</f>
+        <v>-2.9558577807620168E-12</v>
       </c>
       <c r="E44" s="8">
-        <v>1011.42744440942</v>
+        <v>473.706524596816</v>
       </c>
       <c r="G44" s="8">
         <v>206.25</v>
@@ -1721,13 +2555,17 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
-        <v>1040</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="8">
-        <v>842.33333333333303</v>
+        <v>1573.8333333333301</v>
+      </c>
+      <c r="D45" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B45,[1]角色基础!$U:$U,0))-C45</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E45" s="8">
-        <v>984.81093271443399</v>
+        <v>527.08190764997903</v>
       </c>
       <c r="G45" s="8">
         <v>206.25</v>
@@ -1738,13 +2576,17 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="8">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="C46" s="8">
-        <v>864.5</v>
+        <v>1241.3333333333301</v>
+      </c>
+      <c r="D46" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B46,[1]角色基础!$U:$U,0))-C46</f>
+        <v>3.1832314562052488E-12</v>
       </c>
       <c r="E46" s="8">
-        <v>959.55937033714099</v>
+        <v>668.26456148479497</v>
       </c>
       <c r="G46" s="8">
         <v>206.25</v>
@@ -1755,13 +2597,17 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="C47" s="8">
-        <v>886.66666666666697</v>
+        <v>399</v>
+      </c>
+      <c r="D47" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B47,[1]角色基础!$U:$U,0))-C47</f>
+        <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>935.570386078713</v>
+        <v>2079.0453023971399</v>
       </c>
       <c r="G47" s="8">
         <v>206.25</v>
@@ -1772,13 +2618,17 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="C48" s="8">
-        <v>908.83333333333303</v>
+        <v>354.66666666666703</v>
+      </c>
+      <c r="D48" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B48,[1]角色基础!$U:$U,0))-C48</f>
+        <v>0</v>
       </c>
       <c r="E48" s="8">
-        <v>912.75159617435395</v>
+        <v>2338.92596519678</v>
       </c>
       <c r="G48" s="8">
         <v>206.25</v>
@@ -1789,47 +2639,47 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
-        <v>1044</v>
-      </c>
-      <c r="C49" s="8">
-        <v>931</v>
-      </c>
-      <c r="E49" s="8">
-        <v>891.01941531305999</v>
-      </c>
-      <c r="G49" s="8">
-        <v>206.25</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.9</v>
+        <v>1086</v>
+      </c>
+      <c r="D49" s="8" t="e">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B49,[1]角色基础!$U:$U,0))-C49</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="8">
-        <v>1045</v>
+        <v>1008</v>
       </c>
       <c r="C50" s="8">
-        <v>953.16666666666697</v>
+        <v>448.23863636363598</v>
+      </c>
+      <c r="D50" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B50,[1]角色基础!$U:$U,0))-C50</f>
+        <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>870.298033561593</v>
+        <v>3050.90480429539</v>
       </c>
       <c r="G50" s="8">
-        <v>206.25</v>
+        <v>338.25</v>
       </c>
       <c r="L50" s="8">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="8">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="C51" s="8">
-        <v>975.33333333333303</v>
+        <v>1130.5</v>
+      </c>
+      <c r="D51" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B51,[1]角色基础!$U:$U,0))-C51</f>
+        <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>850.51853279883005</v>
+        <v>733.78069496369596</v>
       </c>
       <c r="G51" s="8">
         <v>206.25</v>
@@ -1840,13 +2690,17 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="8">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="8">
-        <v>997.5</v>
+        <v>532</v>
+      </c>
+      <c r="D52" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B52,[1]角色基础!$U:$U,0))-C52</f>
+        <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>831.61812095885603</v>
+        <v>1559.2839767978501</v>
       </c>
       <c r="G52" s="8">
         <v>206.25</v>
@@ -1857,13 +2711,17 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="C53" s="8">
-        <v>1019.66666666667</v>
+        <v>221.666666666667</v>
+      </c>
+      <c r="D53" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B53,[1]角色基础!$U:$U,0))-C53</f>
+        <v>-3.1263880373444408E-13</v>
       </c>
       <c r="E53" s="8">
-        <v>813.53946615540201</v>
+        <v>3742.2815443148502</v>
       </c>
       <c r="G53" s="8">
         <v>206.25</v>
@@ -1874,16 +2732,20 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="8">
-        <v>1049</v>
+        <v>1002</v>
       </c>
       <c r="C54" s="8">
-        <v>1041.8333333333301</v>
+        <v>260.41666666666703</v>
+      </c>
+      <c r="D54" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B54,[1]角色基础!$U:$U,0))-C54</f>
+        <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>796.23011581166998</v>
+        <v>7438.6312918423</v>
       </c>
       <c r="G54" s="8">
-        <v>206.25</v>
+        <v>825</v>
       </c>
       <c r="L54" s="8">
         <v>0.9</v>
@@ -1891,47 +2753,59 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="C55" s="8">
-        <v>1064</v>
+        <v>271.74342105263202</v>
+      </c>
+      <c r="D55" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B55,[1]角色基础!$U:$U,0))-C55</f>
+        <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>779.64198839892697</v>
+        <v>6772.3667570702401</v>
       </c>
       <c r="G55" s="8">
-        <v>206.25</v>
+        <v>676.5</v>
       </c>
       <c r="L55" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="8">
-        <v>1051</v>
+        <v>1006</v>
       </c>
       <c r="C56" s="8">
-        <v>1086.1666666666699</v>
+        <v>500</v>
+      </c>
+      <c r="D56" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B56,[1]角色基础!$U:$U,0))-C56</f>
+        <v>0</v>
       </c>
       <c r="E56" s="8">
-        <v>763.73092741119399</v>
+        <v>2988.9036950321902</v>
       </c>
       <c r="G56" s="8">
-        <v>206.25</v>
+        <v>371.25</v>
       </c>
       <c r="L56" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="8">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C57" s="8">
-        <v>1108.3333333333301</v>
+        <v>1064</v>
+      </c>
+      <c r="D57" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B57,[1]角色基础!$U:$U,0))-C57</f>
+        <v>310.33333333333348</v>
       </c>
       <c r="E57" s="8">
-        <v>748.45630886296999</v>
+        <v>779.64198839892697</v>
       </c>
       <c r="G57" s="8">
         <v>206.25</v>
@@ -1942,30 +2816,38 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="8">
-        <v>1053</v>
+        <v>1007</v>
       </c>
       <c r="C58" s="8">
-        <v>1130.5</v>
+        <v>439.09090909090901</v>
+      </c>
+      <c r="D58" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B58,[1]角色基础!$U:$U,0))-C58</f>
+        <v>0</v>
       </c>
       <c r="E58" s="8">
-        <v>733.78069496369596</v>
+        <v>3114.4653210515398</v>
       </c>
       <c r="G58" s="8">
-        <v>206.25</v>
+        <v>338.25</v>
       </c>
       <c r="L58" s="8">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="8">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="C59" s="8">
-        <v>1152.6666666666699</v>
+        <v>620.66666666666697</v>
+      </c>
+      <c r="D59" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B59,[1]角色基础!$U:$U,0))-C59</f>
+        <v>0</v>
       </c>
       <c r="E59" s="8">
-        <v>719.66952775285597</v>
+        <v>1336.5291229695899</v>
       </c>
       <c r="G59" s="8">
         <v>206.25</v>
@@ -1976,13 +2858,17 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="8">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="C60" s="8">
-        <v>1174.8333333333301</v>
+        <v>687.16666666666697</v>
+      </c>
+      <c r="D60" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B60,[1]角色基础!$U:$U,0))-C60</f>
+        <v>0</v>
       </c>
       <c r="E60" s="8">
-        <v>706.09085741789602</v>
+        <v>1207.1875949402699</v>
       </c>
       <c r="G60" s="8">
         <v>206.25</v>
@@ -1993,13 +2879,17 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="8">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="C61" s="8">
-        <v>1197</v>
+        <v>288.16666666666703</v>
+      </c>
+      <c r="D61" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B61,[1]角色基础!$U:$U,0))-C61</f>
+        <v>0</v>
       </c>
       <c r="E61" s="8">
-        <v>693.01510079904597</v>
+        <v>2878.6781110114198</v>
       </c>
       <c r="G61" s="8">
         <v>206.25</v>
@@ -2010,13 +2900,17 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="8">
-        <v>1057</v>
+        <v>1016</v>
       </c>
       <c r="C62" s="8">
-        <v>1219.1666666666699</v>
+        <v>310.33333333333297</v>
+      </c>
+      <c r="D62" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B62,[1]角色基础!$U:$U,0))-C62</f>
+        <v>0</v>
       </c>
       <c r="E62" s="8">
-        <v>680.41482623906404</v>
+        <v>2673.0582459391799</v>
       </c>
       <c r="G62" s="8">
         <v>206.25</v>
@@ -2027,13 +2921,17 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="8">
-        <v>1058</v>
+        <v>1067</v>
       </c>
       <c r="C63" s="8">
-        <v>1241.3333333333301</v>
+        <v>1440.8333333333301</v>
+      </c>
+      <c r="D63" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B63,[1]角色基础!$U:$U,0))-C63</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E63" s="8">
-        <v>668.26456148479497</v>
+        <v>575.73562220228496</v>
       </c>
       <c r="G63" s="8">
         <v>206.25</v>
@@ -2044,13 +2942,17 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="8">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="C64" s="8">
-        <v>1263.5</v>
+        <v>1041.8333333333301</v>
+      </c>
+      <c r="D64" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B64,[1]角色基础!$U:$U,0))-C64</f>
+        <v>3.4106051316484809E-12</v>
       </c>
       <c r="E64" s="8">
-        <v>656.54062180962296</v>
+        <v>796.23011581166998</v>
       </c>
       <c r="G64" s="8">
         <v>206.25</v>
@@ -2061,13 +2963,17 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B65" s="8">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="C65" s="8">
-        <v>1285.6666666666699</v>
+        <v>1396.5</v>
+      </c>
+      <c r="D65" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B65,[1]角色基础!$U:$U,0))-C65</f>
+        <v>0</v>
       </c>
       <c r="E65" s="8">
-        <v>645.220955916354</v>
+        <v>594.01294354204003</v>
       </c>
       <c r="G65" s="8">
         <v>206.25</v>
@@ -2078,13 +2984,17 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B66" s="8">
-        <v>1061</v>
+        <v>1028</v>
       </c>
       <c r="C66" s="8">
-        <v>1307.8333333333301</v>
+        <v>576.33333333333303</v>
+      </c>
+      <c r="D66" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B66,[1]角色基础!$U:$U,0))-C66</f>
+        <v>0</v>
       </c>
       <c r="E66" s="8">
-        <v>634.28500751099102</v>
+        <v>1439.3390555057099</v>
       </c>
       <c r="G66" s="8">
         <v>206.25</v>
@@ -2095,13 +3005,17 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B67" s="8">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="C67" s="8">
-        <v>1330</v>
+        <v>775.83333333333303</v>
+      </c>
+      <c r="D67" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B67,[1]角色基础!$U:$U,0))-C67</f>
+        <v>0</v>
       </c>
       <c r="E67" s="8">
-        <v>623.71359071914196</v>
+        <v>1069.2232983756701</v>
       </c>
       <c r="G67" s="8">
         <v>206.25</v>
@@ -2112,13 +3026,17 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B68" s="8">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="C68" s="8">
-        <v>1352.1666666666699</v>
+        <v>798</v>
+      </c>
+      <c r="D68" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B68,[1]角色基础!$U:$U,0))-C68</f>
+        <v>0</v>
       </c>
       <c r="E68" s="8">
-        <v>613.48877775653295</v>
+        <v>1039.52265119857</v>
       </c>
       <c r="G68" s="8">
         <v>206.25</v>
@@ -2129,13 +3047,17 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B69" s="8">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C69" s="8">
-        <v>1374.3333333333301</v>
+        <v>1086.1666666666699</v>
+      </c>
+      <c r="D69" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B69,[1]角色基础!$U:$U,0))-C69</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E69" s="8">
-        <v>603.59379747013702</v>
+        <v>763.73092741119399</v>
       </c>
       <c r="G69" s="8">
         <v>206.25</v>
@@ -2146,13 +3068,17 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B70" s="8">
-        <v>1065</v>
+        <v>1022</v>
       </c>
       <c r="C70" s="8">
-        <v>1396.5</v>
+        <v>443.33333333333297</v>
+      </c>
+      <c r="D70" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B70,[1]角色基础!$U:$U,0))-C70</f>
+        <v>0</v>
       </c>
       <c r="E70" s="8">
-        <v>594.01294354204003</v>
+        <v>1871.1407721574301</v>
       </c>
       <c r="G70" s="8">
         <v>206.25</v>
@@ -2163,13 +3089,17 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B71" s="8">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="C71" s="8">
-        <v>1418.6666666666699</v>
+        <v>753.66666666666697</v>
+      </c>
+      <c r="D71" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B71,[1]角色基础!$U:$U,0))-C71</f>
+        <v>0</v>
       </c>
       <c r="E71" s="8">
-        <v>584.731491299195</v>
+        <v>1100.67104244554</v>
       </c>
       <c r="G71" s="8">
         <v>206.25</v>
@@ -2180,13 +3110,17 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B72" s="8">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C72" s="8">
-        <v>1440.8333333333301</v>
+        <v>1285.6666666666699</v>
+      </c>
+      <c r="D72" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B72,[1]角色基础!$U:$U,0))-C72</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E72" s="8">
-        <v>575.73562220228496</v>
+        <v>645.220955916354</v>
       </c>
       <c r="G72" s="8">
         <v>206.25</v>
@@ -2197,13 +3131,17 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B73" s="8">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C73" s="8">
-        <v>1463</v>
+        <v>1596</v>
+      </c>
+      <c r="D73" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B73,[1]角色基础!$U:$U,0))-C73</f>
+        <v>0</v>
       </c>
       <c r="E73" s="8">
-        <v>567.01235519922</v>
+        <v>519.76132559928499</v>
       </c>
       <c r="G73" s="8">
         <v>206.25</v>
@@ -2214,13 +3152,17 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B74" s="8">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="C74" s="8">
-        <v>1485.1666666666699</v>
+        <v>1729</v>
+      </c>
+      <c r="D74" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B74,[1]角色基础!$U:$U,0))-C74</f>
+        <v>0</v>
       </c>
       <c r="E74" s="8">
-        <v>558.54948422609698</v>
+        <v>479.77968516857101</v>
       </c>
       <c r="G74" s="8">
         <v>206.25</v>
@@ -2231,13 +3173,17 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B75" s="8">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C75" s="8">
-        <v>1507.3333333333301</v>
+        <v>1418.6666666666699</v>
+      </c>
+      <c r="D75" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B75,[1]角色基础!$U:$U,0))-C75</f>
+        <v>-2.9558577807620168E-12</v>
       </c>
       <c r="E75" s="8">
-        <v>550.33552122277194</v>
+        <v>584.731491299195</v>
       </c>
       <c r="G75" s="8">
         <v>206.25</v>
@@ -2248,13 +3194,17 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="8">
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="C76" s="8">
-        <v>1529.5</v>
+        <v>199.5</v>
+      </c>
+      <c r="D76" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B76,[1]角色基础!$U:$U,0))-C76</f>
+        <v>0</v>
       </c>
       <c r="E76" s="8">
-        <v>542.35964410360202</v>
+        <v>4158.0906047942799</v>
       </c>
       <c r="G76" s="8">
         <v>206.25</v>
@@ -2265,13 +3215,17 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B77" s="8">
-        <v>1072</v>
+        <v>1021</v>
       </c>
       <c r="C77" s="8">
-        <v>1551.6666666666699</v>
+        <v>421.16666666666703</v>
+      </c>
+      <c r="D77" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B77,[1]角色基础!$U:$U,0))-C77</f>
+        <v>0</v>
       </c>
       <c r="E77" s="8">
-        <v>534.61164918783595</v>
+        <v>1969.62186542887</v>
       </c>
       <c r="G77" s="8">
         <v>206.25</v>
@@ -2282,13 +3236,17 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B78" s="8">
-        <v>1073</v>
+        <v>1019</v>
       </c>
       <c r="C78" s="8">
-        <v>1573.8333333333301</v>
+        <v>376.83333333333297</v>
+      </c>
+      <c r="D78" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B78,[1]角色基础!$U:$U,0))-C78</f>
+        <v>0</v>
       </c>
       <c r="E78" s="8">
-        <v>527.08190764997903</v>
+        <v>2201.3420848910901</v>
       </c>
       <c r="G78" s="8">
         <v>206.25</v>
@@ -2299,13 +3257,17 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B79" s="8">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="C79" s="8">
-        <v>1596</v>
+        <v>665</v>
+      </c>
+      <c r="D79" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B79,[1]角色基础!$U:$U,0))-C79</f>
+        <v>0</v>
       </c>
       <c r="E79" s="8">
-        <v>519.76132559928499</v>
+        <v>1247.4271814382801</v>
       </c>
       <c r="G79" s="8">
         <v>206.25</v>
@@ -2316,13 +3278,17 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B80" s="8">
-        <v>1075</v>
+        <v>1023</v>
       </c>
       <c r="C80" s="8">
-        <v>1618.1666666666699</v>
+        <v>465.5</v>
+      </c>
+      <c r="D80" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B80,[1]角色基础!$U:$U,0))-C80</f>
+        <v>0</v>
       </c>
       <c r="E80" s="8">
-        <v>512.64130744039005</v>
+        <v>1782.03883062612</v>
       </c>
       <c r="G80" s="8">
         <v>206.25</v>
@@ -2333,13 +3299,17 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B81" s="8">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C81" s="8">
-        <v>1640.3333333333301</v>
+        <v>1551.6666666666699</v>
+      </c>
+      <c r="D81" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B81,[1]角色基础!$U:$U,0))-C81</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E81" s="8">
-        <v>505.71372220470897</v>
+        <v>534.61164918783595</v>
       </c>
       <c r="G81" s="8">
         <v>206.25</v>
@@ -2350,13 +3320,17 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B82" s="8">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C82" s="8">
-        <v>1662.5</v>
+        <v>1684.6666666666699</v>
+      </c>
+      <c r="D82" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B82,[1]角色基础!$U:$U,0))-C82</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E82" s="8">
-        <v>498.97087257531302</v>
+        <v>492.40546635721699</v>
       </c>
       <c r="G82" s="8">
         <v>206.25</v>
@@ -2367,13 +3341,17 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B83" s="8">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="C83" s="8">
-        <v>1684.6666666666699</v>
+        <v>908.83333333333303</v>
+      </c>
+      <c r="D83" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B83,[1]角色基础!$U:$U,0))-C83</f>
+        <v>0</v>
       </c>
       <c r="E83" s="8">
-        <v>492.40546635721699</v>
+        <v>912.75159617435395</v>
       </c>
       <c r="G83" s="8">
         <v>206.25</v>
@@ -2384,13 +3362,17 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B84" s="8">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C84" s="8">
-        <v>1706.8333333333301</v>
+        <v>243.833333333333</v>
+      </c>
+      <c r="D84" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B84,[1]角色基础!$U:$U,0))-C84</f>
+        <v>3.694822225952521E-13</v>
       </c>
       <c r="E84" s="8">
-        <v>486.01059017076</v>
+        <v>3402.0741311953202</v>
       </c>
       <c r="G84" s="8">
         <v>206.25</v>
@@ -2401,30 +3383,38 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B85" s="8">
-        <v>1080</v>
+        <v>1005</v>
       </c>
       <c r="C85" s="8">
-        <v>1729</v>
+        <v>525</v>
+      </c>
+      <c r="D85" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B85,[1]角色基础!$U:$U,0))-C85</f>
+        <v>0</v>
       </c>
       <c r="E85" s="8">
-        <v>479.77968516857101</v>
+        <v>2846.5749476497099</v>
       </c>
       <c r="G85" s="8">
-        <v>206.25</v>
+        <v>371.25</v>
       </c>
       <c r="L85" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B86" s="8">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="C86" s="8">
-        <v>1751.1666666666699</v>
+        <v>1352.1666666666699</v>
+      </c>
+      <c r="D86" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B86,[1]角色基础!$U:$U,0))-C86</f>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="E86" s="8">
-        <v>473.706524596816</v>
+        <v>613.48877775653295</v>
       </c>
       <c r="G86" s="8">
         <v>206.25</v>
@@ -2435,13 +3425,17 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B87" s="8">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="C87" s="8">
-        <v>1773.3333333333301</v>
+        <v>487.66666666666703</v>
+      </c>
+      <c r="D87" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B87,[1]角色基础!$U:$U,0))-C87</f>
+        <v>0</v>
       </c>
       <c r="E87" s="8">
-        <v>467.78519303935599</v>
+        <v>1701.0370655976601</v>
       </c>
       <c r="G87" s="8">
         <v>206.25</v>
@@ -2452,34 +3446,86 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B88" s="8">
-        <v>1083</v>
+        <v>1010</v>
       </c>
       <c r="C88" s="8">
-        <v>1795.5</v>
+        <v>362.8125</v>
+      </c>
+      <c r="D88" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B88,[1]角色基础!$U:$U,0))-C88</f>
+        <v>0</v>
       </c>
       <c r="E88" s="8">
-        <v>462.01006719936402</v>
+        <v>3315.8257732505699</v>
       </c>
       <c r="G88" s="8">
-        <v>206.25</v>
+        <v>528</v>
       </c>
       <c r="L88" s="8">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B89" s="8">
-        <v>1084</v>
+        <v>1055</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1174.8333333333301</v>
+      </c>
+      <c r="D89" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B89,[1]角色基础!$U:$U,0))-C89</f>
+        <v>3.4106051316484809E-12</v>
+      </c>
+      <c r="E89" s="8">
+        <v>706.09085741789602</v>
+      </c>
+      <c r="G89" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L89" s="8">
+        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B90" s="8">
-        <v>1085</v>
+        <v>1069</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1485.1666666666699</v>
+      </c>
+      <c r="D90" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B90,[1]角色基础!$U:$U,0))-C90</f>
+        <v>-3.1832314562052488E-12</v>
+      </c>
+      <c r="E90" s="8">
+        <v>558.54948422609698</v>
+      </c>
+      <c r="G90" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L90" s="8">
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B91" s="8">
-        <v>1086</v>
+        <v>1071</v>
+      </c>
+      <c r="C91" s="8">
+        <v>1529.5</v>
+      </c>
+      <c r="D91" s="8">
+        <f>INDEX([1]角色基础!$N:$N,MATCH(B91,[1]角色基础!$U:$U,0))-C91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
+        <v>542.35964410360202</v>
+      </c>
+      <c r="G91" s="8">
+        <v>206.25</v>
+      </c>
+      <c r="L91" s="8">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
